--- a/bicycle/bicycle.xlsx
+++ b/bicycle/bicycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smzq1\code\vs-products\Bicycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smzq1\code\vs-products\bicycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12F02D-889C-4A24-A919-7038466A010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673040B-42A4-48F3-AFF8-39C0EF3FFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入门21速对比" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="148">
   <si>
     <t>型号</t>
   </si>
@@ -353,22 +353,6 @@
   </si>
   <si>
     <t>xds黑客350 25款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1237~1381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>937~1082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>834~981</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1037~1198</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朝阳26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车架把立终身保修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1432~1578</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Branta 27.5寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,22 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沃雷顿红日300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.8KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VORLRD 27.5寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃雷顿红日500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16KG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,6 +576,78 @@
   </si>
   <si>
     <t>铝合金内走线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金补土走内线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microshift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久风神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建大27.5寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VORLRD 26寸/27.5寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃雷顿红日300 24款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃雷顿红日500 24款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃雷顿烈日300 25款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6系铝合金内走线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.4KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳26寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃雷顿烈日350 25款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VORLRD 26寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红日380 25款: 26寸+少了副把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAUX 哪吒200Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建大26/27.5寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100~1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950~1050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,13 +776,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -768,6 +793,23 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -796,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,14 +878,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -852,6 +894,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,20 +1213,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C6C1DF-641A-4C21-AE7F-7806D0777912}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1190,7 +1235,7 @@
     <col min="14" max="14" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1247,22 +1292,22 @@
       <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1278,12 +1323,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
+      <c r="B3" s="2">
+        <v>834</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1291,10 +1336,10 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1322,12 +1367,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
+      <c r="B4" s="2">
+        <v>937</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -1335,10 +1380,10 @@
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1366,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -1379,28 +1424,28 @@
       <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1410,21 +1455,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B6" s="2">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
+      <c r="E6" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>45</v>
@@ -1436,39 +1481,39 @@
         <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>985</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
+      <c r="E7" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>45</v>
@@ -1479,143 +1524,143 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>22</v>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1037</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1198</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>139</v>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>103</v>
+      <c r="H9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>31</v>
+      <c r="L9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2">
         <v>1198</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>71</v>
+      <c r="H10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>41</v>
@@ -1623,63 +1668,63 @@
       <c r="L10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>22</v>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
+      <c r="E11" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>31</v>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="2">
-        <v>1298</v>
+        <v>1237</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1688,139 +1733,139 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1298</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2">
         <v>1300</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1349</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2">
-        <v>1398</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>1349</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>52</v>
@@ -1829,41 +1874,41 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5">
-      <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="2">
-        <v>1598</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1872,42 +1917,42 @@
       <c r="G16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>35</v>
+      <c r="H16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="2">
-        <v>1836</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1916,26 +1961,70 @@
       <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>41</v>
+      <c r="H17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1836</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1946,13 +2035,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2457F071-62BE-47CA-A852-5F8570CF847E}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -1965,10 +2054,11 @@
     <col min="9" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.58203125" customWidth="1"/>
-    <col min="14" max="14" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,150 +2102,150 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2">
         <v>629</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>130</v>
+        <v>81</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2">
         <v>658</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>130</v>
+      <c r="H3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B4" s="2">
-        <v>1029</v>
+        <v>958</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B5" s="2">
-        <v>1173</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>37</v>
+        <v>999</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>65</v>
@@ -2164,39 +2254,39 @@
         <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1219</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>121</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -2208,16 +2298,16 @@
         <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>41</v>
@@ -2225,22 +2315,25 @@
       <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>35</v>
+      <c r="M6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
+      </c>
+      <c r="O6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B7" s="2">
-        <v>1399</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>1150</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -2251,249 +2344,381 @@
       <c r="F7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>41</v>
+      <c r="L7" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1498</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
+      <c r="L9" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2">
-        <v>1798</v>
+        <v>1399</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>122</v>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2">
-        <v>1890</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>1432</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1498</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1798</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1890</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="17" t="s">
+      <c r="I14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2">
         <v>1998</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>138</v>
+      <c r="K15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,7 +2748,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
